--- a/config_3.23/permission_server_config.xlsx
+++ b/config_3.23/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2220">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10146,6 +10146,14 @@
   </si>
   <si>
     <t>actp_rank_xxlzb_007_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16266,7 +16274,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -29067,11 +29075,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C885" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D846" sqref="D846"/>
+      <selection pane="bottomRight" activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -33235,7 +33243,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="80" t="s">
-        <v>1815</v>
+        <v>2219</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -52758,7 +52766,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -52915,7 +52923,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>1599</v>
+        <v>2218</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1723</v>

--- a/config_3.23/permission_server_config.xlsx
+++ b/config_3.23/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5139" uniqueCount="2224">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10154,6 +10154,22 @@
   </si>
   <si>
     <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼掉落权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于捕鱼奥秘</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10996,11 +11012,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q519"/>
+  <dimension ref="A1:Q521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B500" sqref="B500"/>
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A521" sqref="A521:XFD521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16206,7 +16222,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:3">
       <c r="A513" s="27" t="s">
         <v>2206</v>
       </c>
@@ -16214,7 +16230,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:3">
       <c r="A514" s="27" t="s">
         <v>2207</v>
       </c>
@@ -16222,7 +16238,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:3">
       <c r="A515" s="27" t="s">
         <v>2208</v>
       </c>
@@ -16230,7 +16246,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:3">
       <c r="A516" s="27" t="s">
         <v>2209</v>
       </c>
@@ -16238,7 +16254,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:3">
       <c r="A517" s="27" t="s">
         <v>2210</v>
       </c>
@@ -16246,7 +16262,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:3">
       <c r="A518" s="27" t="s">
         <v>2211</v>
       </c>
@@ -16254,12 +16270,23 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:3">
       <c r="A519" s="27" t="s">
         <v>2212</v>
       </c>
       <c r="B519" s="27" t="s">
         <v>1316</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C521" s="3">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -29073,13 +29100,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I989"/>
+  <dimension ref="A1:I990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C836" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D179" sqref="D179"/>
+      <selection pane="bottomRight" activeCell="D858" sqref="D858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49677,7 +49704,7 @@
         <v>1883</v>
       </c>
       <c r="D860" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E860" s="8">
         <v>3</v>
@@ -52751,6 +52778,29 @@
       </c>
       <c r="G989" s="21" t="s">
         <v>1875</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7">
+      <c r="A990" s="9">
+        <v>989</v>
+      </c>
+      <c r="B990" s="9">
+        <v>410</v>
+      </c>
+      <c r="C990" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D990" s="9" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E990" s="9">
+        <v>5</v>
+      </c>
+      <c r="F990" s="9">
+        <v>1</v>
+      </c>
+      <c r="G990" s="9" t="s">
+        <v>2223</v>
       </c>
     </row>
   </sheetData>
